--- a/biology/Zoologie/Dama_roberti/Dama_roberti.xlsx
+++ b/biology/Zoologie/Dama_roberti/Dama_roberti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dama roberti est une espèce fossile d'artiodactyles ruminants de la famille des Cervidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce daim a été découvert dans le Sud de l'Angleterre (au Royaume-Uni), au site de Soleilhac (à Le Puy-en-Velay, en France)[1] et à la grotte Valdemino (en) (à Borgio Verezzi, en Italie)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce daim a été découvert dans le Sud de l'Angleterre (au Royaume-Uni), au site de Soleilhac (à Le Puy-en-Velay, en France) et à la grotte Valdemino (en) (à Borgio Verezzi, en Italie).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Paléoenvironnement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il vivait à l'époque du Pléistocène, plus précisément du Pléistocène moyen[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vivait à l'époque du Pléistocène, plus précisément du Pléistocène moyen.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite en 20132013 en paléontologie par les naturalistes Marzia Breda et Adrian M. Lister. La localité type est Pakefield, à Lowestoft, en Angleterre (Royaume-Uni). Provenant de couches géologiques plus anciennes que le Daim européen (Dama dama), elle est considérée comme l'ancêtre de ce dernier[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite en 20132013 en paléontologie par les naturalistes Marzia Breda et Adrian M. Lister. La localité type est Pakefield, à Lowestoft, en Angleterre (Royaume-Uni). Provenant de couches géologiques plus anciennes que le Daim européen (Dama dama), elle est considérée comme l'ancêtre de ce dernier.
 </t>
         </is>
       </c>
